--- a/Data/Entities/OpenNGS/OpenNGS.Setting.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Setting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\openngs-unity\Data\Entities\OpenNGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012251E3-673D-468D-A4EC-BBDA5FE491D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6469A79D-3A94-4C7D-8825-4795EB0A77DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61125" yWindow="2670" windowWidth="26850" windowHeight="16125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="219">
   <si>
     <t>Package</t>
   </si>
@@ -81,9 +81,6 @@
     <t>RESULT_TYPE</t>
   </si>
   <si>
-    <t>结果类型</t>
-  </si>
-  <si>
     <t>ADUIO_TYPE</t>
   </si>
   <si>
@@ -571,24 +568,6 @@
   </si>
   <si>
     <t>日本语</t>
-  </si>
-  <si>
-    <t>RESULT_TYPE_NONE</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>RESULT_TYPE_SUCCESS</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>RESULT_TYPE_FAILED</t>
-  </si>
-  <si>
-    <t>失败</t>
   </si>
   <si>
     <t>ADUIO_TYPE_OVERALLAudio</t>
@@ -725,7 +704,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -966,7 +945,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1952,8 +1931,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:J26" totalsRowShown="0">
-  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:J25" totalsRowShown="0">
+  <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Package" dataDxfId="128"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="127"/>
@@ -2181,23 +2160,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="RESULT_TYPE" displayName="RESULT_TYPE" ref="A19:F22" totalsRowShown="0">
-  <autoFilter ref="A19:F22" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Scope"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="ADUIO_TYPE" displayName="ADUIO_TYPE" ref="A25:F28" totalsRowShown="0">
-  <autoFilter ref="A25:F28" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="ADUIO_TYPE" displayName="ADUIO_TYPE" ref="A20:F23" totalsRowShown="0">
+  <autoFilter ref="A20:F23" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Name" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Type" dataDxfId="10"/>
@@ -2210,9 +2174,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="UserSetting_Type" displayName="UserSetting_Type" ref="A37:F47" totalsRowShown="0">
-  <autoFilter ref="A37:F47" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="UserSetting_Type" displayName="UserSetting_Type" ref="A32:F42" totalsRowShown="0">
+  <autoFilter ref="A32:F42" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Name" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Type" dataDxfId="4"/>
@@ -2225,9 +2189,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="UserSetting_StorageType" displayName="UserSetting_StorageType" ref="A53:F56" totalsRowShown="0">
-  <autoFilter ref="A53:F56" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="UserSetting_StorageType" displayName="UserSetting_StorageType" ref="A48:F51" totalsRowShown="0">
+  <autoFilter ref="A48:F51" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Type"/>
@@ -2595,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2649,13 +2613,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -2672,7 +2636,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -2694,11 +2658,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>220</v>
+      <c r="A4" s="30" t="s">
+        <v>214</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2707,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
@@ -2718,341 +2682,344 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>215</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>222</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
+      <c r="E8" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>32</v>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>26</v>
+      <c r="E18" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>24</v>
-      </c>
       <c r="E19" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>14</v>
@@ -3061,24 +3028,24 @@
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>24</v>
-      </c>
       <c r="E20" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>14</v>
@@ -3087,24 +3054,24 @@
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>24</v>
-      </c>
       <c r="E21" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>14</v>
@@ -3113,24 +3080,24 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>224</v>
+      <c r="A22" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>24</v>
-      </c>
       <c r="E22" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>14</v>
@@ -3139,24 +3106,24 @@
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>225</v>
+      <c r="A23" s="29" t="s">
+        <v>217</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>24</v>
-      </c>
       <c r="E23" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>14</v>
@@ -3165,24 +3132,24 @@
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>14</v>
@@ -3191,15 +3158,15 @@
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>11</v>
@@ -3208,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>14</v>
@@ -3217,32 +3184,6 @@
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3276,7 +3217,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -3290,10 +3231,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
@@ -3301,19 +3242,19 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>14</v>
@@ -3324,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -3338,13 +3279,13 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -3359,7 +3300,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -3373,10 +3314,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>5</v>
@@ -3384,19 +3325,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
@@ -3404,13 +3345,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -3421,13 +3362,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -3438,13 +3379,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -3455,10 +3396,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -3472,10 +3413,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -3489,10 +3430,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -3506,10 +3447,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>5</v>
@@ -3517,19 +3458,19 @@
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>14</v>
@@ -3537,13 +3478,13 @@
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -3554,13 +3495,13 @@
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -3574,10 +3515,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -3591,10 +3532,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>5</v>
@@ -3602,19 +3543,19 @@
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>14</v>
@@ -3622,13 +3563,13 @@
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
@@ -3639,13 +3580,13 @@
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -3656,13 +3597,13 @@
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
@@ -3673,13 +3614,13 @@
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
@@ -3690,10 +3631,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -3707,10 +3648,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>5</v>
@@ -3718,19 +3659,19 @@
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>68</v>
-      </c>
       <c r="C33" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="21">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>14</v>
@@ -3738,13 +3679,13 @@
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D34" s="21">
         <v>2</v>
@@ -3755,13 +3696,13 @@
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D35" s="21">
         <v>3</v>
@@ -3772,7 +3713,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
@@ -3789,10 +3730,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>5</v>
@@ -3800,19 +3741,19 @@
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>14</v>
@@ -3820,13 +3761,13 @@
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
@@ -3837,13 +3778,13 @@
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -3854,13 +3795,13 @@
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -3871,7 +3812,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -3888,10 +3829,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>5</v>
@@ -3899,19 +3840,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
@@ -3919,10 +3860,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
@@ -3936,13 +3877,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D48" s="2">
         <v>3</v>
@@ -3953,7 +3894,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -3967,10 +3908,10 @@
         <v>4</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>5</v>
@@ -3978,19 +3919,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
@@ -3998,13 +3939,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
@@ -4015,13 +3956,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
@@ -4032,10 +3973,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
@@ -4049,10 +3990,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
@@ -4066,7 +4007,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -4080,10 +4021,10 @@
         <v>4</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>5</v>
@@ -4091,19 +4032,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -4111,13 +4052,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
@@ -4128,7 +4069,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -4142,10 +4083,10 @@
         <v>4</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>5</v>
@@ -4153,19 +4094,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="2">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>14</v>
@@ -4173,13 +4114,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D71" s="2">
         <v>2</v>
@@ -4190,13 +4131,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D72" s="2">
         <v>3</v>
@@ -4207,7 +4148,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -4221,10 +4162,10 @@
         <v>4</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>5</v>
@@ -4232,19 +4173,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
@@ -4252,13 +4193,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
@@ -4269,7 +4210,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -4283,10 +4224,10 @@
         <v>4</v>
       </c>
       <c r="D83" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>5</v>
@@ -4294,19 +4235,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>14</v>
@@ -4314,13 +4255,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -4331,7 +4272,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -4345,10 +4286,10 @@
         <v>4</v>
       </c>
       <c r="D90" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>5</v>
@@ -4356,19 +4297,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>14</v>
@@ -4376,13 +4317,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="2">
         <v>2</v>
@@ -4394,13 +4335,13 @@
     <row r="96" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -4419,10 +4360,10 @@
         <v>4</v>
       </c>
       <c r="D102" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="F102" s="16" t="s">
         <v>5</v>
@@ -4430,19 +4371,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="C103" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D103" s="12">
         <v>1</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F103" s="12" t="s">
         <v>14</v>
@@ -4450,13 +4391,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D104" s="12">
         <v>2</v>
@@ -4468,13 +4409,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="D105" s="12">
         <v>3</v>
@@ -4489,10 +4430,10 @@
         <v>5</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D106" s="12">
         <v>4</v>
@@ -4504,7 +4445,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4518,10 +4459,10 @@
         <v>4</v>
       </c>
       <c r="D110" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>5</v>
@@ -4529,63 +4470,63 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="C111" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D111" s="12">
         <v>1</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D112" s="12">
         <v>2</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D113" s="12">
         <v>3</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4599,10 +4540,10 @@
         <v>4</v>
       </c>
       <c r="D117" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>5</v>
@@ -4610,99 +4551,99 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="C118" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D118" s="12">
         <v>1</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D119" s="12">
         <v>2</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="D120" s="12">
         <v>3</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="D121" s="12">
         <v>4</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="D122" s="12">
         <v>5</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4716,10 +4657,10 @@
         <v>4</v>
       </c>
       <c r="D126" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>5</v>
@@ -4727,19 +4668,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="C127" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D127" s="12">
         <v>1</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>14</v>
@@ -4747,13 +4688,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B128" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="C128" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D128" s="12">
         <v>2</v>
@@ -4765,13 +4706,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D129" s="12">
         <v>3</v>
@@ -4783,13 +4724,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="C130" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="D130" s="12">
         <v>4</v>
@@ -4801,13 +4742,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="D131" s="12">
         <v>5</v>
@@ -4819,13 +4760,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="D132" s="12">
         <v>6</v>
@@ -4837,13 +4778,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="D133" s="12">
         <v>7</v>
@@ -4855,13 +4796,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="D134" s="12">
         <v>8</v>
@@ -4873,13 +4814,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="D135" s="12">
         <v>9</v>
@@ -4891,187 +4832,187 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="D136" s="12">
         <v>10</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="D137" s="12">
         <v>11</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="D138" s="12">
         <v>12</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="D139" s="12">
         <v>13</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="D140" s="12">
         <v>14</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D141" s="12">
         <v>15</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="D142" s="12">
         <v>16</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="D143" s="12">
         <v>17</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="D144" s="12">
         <v>18</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="D145" s="12">
         <v>19</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5090,10 +5031,10 @@
         <v>4</v>
       </c>
       <c r="D149" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="F149" s="25" t="s">
         <v>5</v>
@@ -5101,19 +5042,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B150" s="27" t="s">
-        <v>68</v>
-      </c>
       <c r="C150" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D150" s="27">
         <v>1</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F150" s="28" t="s">
         <v>14</v>
@@ -5121,13 +5062,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D151" s="27">
         <v>2</v>
@@ -5139,13 +5080,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D152" s="27">
         <v>3</v>
@@ -5157,13 +5098,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D153" s="27">
         <v>4</v>
@@ -5175,13 +5116,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D154" s="27">
         <v>5</v>
@@ -5209,7 +5150,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5228,10 +5169,10 @@
         <v>4</v>
       </c>
       <c r="D158" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="F158" s="16" t="s">
         <v>5</v>
@@ -5239,13 +5180,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="C159" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="D159" s="12">
         <v>1</v>
@@ -5284,10 +5225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5327,10 +5268,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
@@ -5338,13 +5279,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -5405,10 +5346,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>5</v>
@@ -5419,13 +5360,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -5437,13 +5378,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -5455,13 +5396,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -5473,13 +5414,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -5489,61 +5430,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
@@ -5552,418 +5478,353 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C32" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D32" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="F32" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="B34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="B35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="D35" s="12">
         <v>2</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+        <v>194</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="12">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="A37" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="12">
         <v>4</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>5</v>
+      <c r="E37" s="2"/>
+      <c r="F37" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>196</v>
+        <v>67</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>198</v>
+        <v>67</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>200</v>
+        <v>67</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D40" s="12">
-        <v>2</v>
-      </c>
-      <c r="E40" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>202</v>
+        <v>67</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D41" s="12">
-        <v>3</v>
-      </c>
-      <c r="E41" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D42" s="12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="12">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="12">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="B49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="12">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="12">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="12">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/Entities/OpenNGS/OpenNGS.Setting.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="214">
   <si>
     <t>Package</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>RESULT_TYPE</t>
-  </si>
-  <si>
     <t>请求结果</t>
   </si>
   <si>
@@ -706,7 +703,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,19 +760,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -923,7 +907,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,18 +1031,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,137 +1313,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,12 +1495,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,13 +1531,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3170,7 +3133,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3220,7 +3183,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3266,7 +3229,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3289,13 +3252,13 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3312,7 +3275,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3335,7 +3298,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3358,7 +3321,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3370,7 +3333,7 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -3381,7 +3344,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3404,7 +3367,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3427,7 +3390,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3450,7 +3413,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3473,7 +3436,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3496,7 +3459,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3519,7 +3482,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3542,7 +3505,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3565,7 +3528,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3588,210 +3551,210 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:10">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32" t="s">
+      <c r="F18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:10">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32" t="s">
+      <c r="F19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32" t="s">
+      <c r="F20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:10">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32" t="s">
+      <c r="F21" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:10">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32" t="s">
+      <c r="F22" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32" t="s">
+      <c r="F23" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:10">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32" t="s">
+      <c r="F24" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:10">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32" t="s">
+      <c r="F25" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3810,8 +3773,8 @@
   <sheetPr/>
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3862,10 +3825,10 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3882,7 +3845,7 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3899,13 +3862,13 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="5:5">
-      <c r="E6" s="21"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
@@ -3937,10 +3900,10 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3954,7 +3917,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -3971,12 +3934,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2">
@@ -3988,7 +3951,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
@@ -4005,7 +3968,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
@@ -4022,7 +3985,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -4081,52 +4044,52 @@
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="6:6">
-      <c r="F21" s="20"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4166,30 +4129,30 @@
       <c r="E25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>19</v>
@@ -4200,41 +4163,41 @@
       <c r="D27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4267,56 +4230,56 @@
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:6">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="21">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="23">
+        <v>94</v>
+      </c>
+      <c r="D34" s="21">
         <v>2</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="23">
+      <c r="D35" s="21">
         <v>3</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4364,58 +4327,58 @@
       <c r="E39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4469,7 +4432,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>71</v>
@@ -4486,13 +4449,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D48" s="2">
         <v>3</v>
@@ -4528,7 +4491,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>39</v>
@@ -4548,12 +4511,12 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="2">
@@ -4565,10 +4528,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>34</v>
@@ -4641,13 +4604,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
@@ -4661,13 +4624,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
@@ -4703,13 +4666,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D70" s="2">
         <v>1</v>
@@ -4723,13 +4686,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D71" s="2">
         <v>2</v>
@@ -4740,13 +4703,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D72" s="2">
         <v>3</v>
@@ -4782,13 +4745,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
@@ -4802,13 +4765,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
@@ -4844,13 +4807,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -4864,13 +4827,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D85" s="2">
         <v>2</v>
@@ -4906,13 +4869,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
@@ -4926,13 +4889,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="2">
         <v>2</v>
@@ -4943,8 +4906,8 @@
     </row>
     <row r="96" s="11" customFormat="1"/>
     <row r="97" s="11" customFormat="1" ht="14.25" spans="1:1">
-      <c r="A97" s="24" t="s">
-        <v>117</v>
+      <c r="A97" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="98" s="11" customFormat="1"/>
@@ -4986,7 +4949,7 @@
         <v>69</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103" s="12">
         <v>1</v>
@@ -5000,7 +4963,7 @@
     </row>
     <row r="104" ht="14.25" spans="1:6">
       <c r="A104" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>69</v>
@@ -5018,13 +4981,13 @@
     </row>
     <row r="105" ht="14.25" spans="1:6">
       <c r="A105" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="D105" s="12">
         <v>3</v>
@@ -5042,7 +5005,7 @@
         <v>69</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D106" s="12">
         <v>4</v>
@@ -5085,7 +5048,7 @@
         <v>69</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D111" s="12">
         <v>1</v>
@@ -5094,43 +5057,43 @@
         <v>70</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:6">
       <c r="A112" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D112" s="12">
         <v>2</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:6">
       <c r="A113" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" s="12">
         <v>3</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:1">
@@ -5166,7 +5129,7 @@
         <v>69</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D118" s="12">
         <v>1</v>
@@ -5175,79 +5138,79 @@
         <v>70</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:6">
       <c r="A119" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D119" s="12">
         <v>2</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" ht="14.25" spans="1:6">
       <c r="A120" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D120" s="12">
         <v>3</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" ht="14.25" spans="1:6">
       <c r="A121" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="D121" s="12">
         <v>4</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:6">
       <c r="A122" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="D122" s="12">
         <v>5</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" ht="14.25" spans="1:1">
@@ -5297,13 +5260,13 @@
     </row>
     <row r="128" ht="14.25" spans="1:6">
       <c r="A128" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="C128" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D128" s="12">
         <v>2</v>
@@ -5315,13 +5278,13 @@
     </row>
     <row r="129" ht="14.25" spans="1:6">
       <c r="A129" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129" s="12">
         <v>3</v>
@@ -5333,13 +5296,13 @@
     </row>
     <row r="130" ht="14.25" spans="1:6">
       <c r="A130" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="C130" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="D130" s="12">
         <v>4</v>
@@ -5351,13 +5314,13 @@
     </row>
     <row r="131" ht="14.25" spans="1:6">
       <c r="A131" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D131" s="12">
         <v>5</v>
@@ -5369,13 +5332,13 @@
     </row>
     <row r="132" ht="14.25" spans="1:6">
       <c r="A132" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D132" s="12">
         <v>6</v>
@@ -5387,13 +5350,13 @@
     </row>
     <row r="133" ht="14.25" spans="1:6">
       <c r="A133" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D133" s="12">
         <v>7</v>
@@ -5405,13 +5368,13 @@
     </row>
     <row r="134" ht="14.25" spans="1:6">
       <c r="A134" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D134" s="12">
         <v>8</v>
@@ -5423,13 +5386,13 @@
     </row>
     <row r="135" ht="14.25" spans="1:6">
       <c r="A135" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D135" s="12">
         <v>9</v>
@@ -5441,182 +5404,182 @@
     </row>
     <row r="136" ht="14.25" spans="1:6">
       <c r="A136" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D136" s="12">
         <v>10</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" ht="14.25" spans="1:6">
       <c r="A137" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D137" s="12">
         <v>11</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" ht="14.25" spans="1:6">
       <c r="A138" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="D138" s="12">
         <v>12</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" ht="14.25" spans="1:6">
       <c r="A139" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D139" s="12">
         <v>13</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" ht="14.25" spans="1:6">
       <c r="A140" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="D140" s="12">
         <v>14</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" ht="14.25" spans="1:6">
       <c r="A141" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D141" s="12">
         <v>15</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="142" ht="14.25" spans="1:6">
       <c r="A142" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="D142" s="12">
         <v>16</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="143" ht="14.25" spans="1:6">
       <c r="A143" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D143" s="12">
         <v>17</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" ht="14.25" spans="1:6">
       <c r="A144" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D144" s="12">
         <v>18</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" ht="14.25" spans="1:6">
       <c r="A145" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D145" s="12">
         <v>19</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" ht="14.25" spans="1:6">
@@ -5630,114 +5593,114 @@
       <c r="F148" s="12"/>
     </row>
     <row r="149" ht="14.25" spans="1:6">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F149" s="27" t="s">
+      <c r="F149" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" ht="14.25" spans="1:6">
-      <c r="A150" s="28" t="s">
+      <c r="A150" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B150" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C150" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D150" s="29">
+      <c r="D150" s="27">
         <v>1</v>
       </c>
-      <c r="E150" s="29" t="s">
+      <c r="E150" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F150" s="30" t="s">
+      <c r="F150" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="151" ht="14.25" spans="1:6">
-      <c r="A151" s="28" t="s">
+      <c r="A151" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D151" s="27">
+        <v>2</v>
+      </c>
+      <c r="E151" s="27"/>
+      <c r="F151" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" spans="1:6">
+      <c r="A152" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C152" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="D152" s="27">
+        <v>3</v>
+      </c>
+      <c r="E152" s="27"/>
+      <c r="F152" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" spans="1:6">
+      <c r="A153" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D151" s="29">
-        <v>2</v>
-      </c>
-      <c r="E151" s="29"/>
-      <c r="F151" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" spans="1:6">
-      <c r="A152" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B152" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C152" s="29" t="s">
+      <c r="C153" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D153" s="27">
+        <v>4</v>
+      </c>
+      <c r="E153" s="27"/>
+      <c r="F153" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" spans="1:6">
+      <c r="A154" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C154" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D152" s="29">
-        <v>3</v>
-      </c>
-      <c r="E152" s="29"/>
-      <c r="F152" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" spans="1:6">
-      <c r="A153" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B153" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D153" s="29">
-        <v>4</v>
-      </c>
-      <c r="E153" s="29"/>
-      <c r="F153" s="30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25" spans="1:6">
-      <c r="A154" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B154" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C154" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D154" s="29">
+      <c r="D154" s="27">
         <v>5</v>
       </c>
-      <c r="E154" s="29"/>
-      <c r="F154" s="30" t="s">
+      <c r="E154" s="27"/>
+      <c r="F154" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5789,13 +5752,13 @@
     </row>
     <row r="159" ht="14.25" spans="1:6">
       <c r="A159" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="C159" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="D159" s="12">
         <v>1</v>
@@ -5837,7 +5800,7 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -5889,13 +5852,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -5970,13 +5933,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -5988,13 +5951,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -6006,13 +5969,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -6024,13 +5987,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -6070,13 +6033,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -6088,13 +6051,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
@@ -6106,13 +6069,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
@@ -6128,7 +6091,7 @@
     <row r="26" s="1" customFormat="1"/>
     <row r="27" s="1" customFormat="1" spans="1:1">
       <c r="A27" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1"/>
@@ -6164,13 +6127,13 @@
     </row>
     <row r="33" ht="14.25" spans="1:6">
       <c r="A33" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D33" s="12">
         <v>0</v>
@@ -6182,13 +6145,13 @@
     </row>
     <row r="34" ht="14.25" spans="1:6">
       <c r="A34" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -6200,13 +6163,13 @@
     </row>
     <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D35" s="12">
         <v>2</v>
@@ -6218,13 +6181,13 @@
     </row>
     <row r="36" ht="14.25" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D36" s="12">
         <v>3</v>
@@ -6236,13 +6199,13 @@
     </row>
     <row r="37" ht="14.25" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" s="12">
         <v>4</v>
@@ -6254,7 +6217,7 @@
     </row>
     <row r="38" ht="14.25" spans="1:6">
       <c r="A38" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>69</v>
@@ -6272,13 +6235,13 @@
     </row>
     <row r="39" ht="14.25" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39" s="12">
         <v>6</v>
@@ -6290,13 +6253,13 @@
     </row>
     <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="12">
         <v>7</v>
@@ -6308,13 +6271,13 @@
     </row>
     <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="12">
         <v>8</v>
@@ -6326,13 +6289,13 @@
     </row>
     <row r="42" ht="14.25" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="12">
         <v>9</v>
@@ -6349,14 +6312,14 @@
       <c r="B43" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="12">
         <v>10</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="17" t="s">
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6392,13 +6355,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -6410,13 +6373,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -6434,7 +6397,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>

--- a/Data/Entities/OpenNGS/OpenNGS.Setting.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="105">
   <si>
     <t>Package</t>
   </si>
@@ -175,31 +175,34 @@
     <t>CategoryName</t>
   </si>
   <si>
+    <t>NGSText</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>是否可见</t>
+  </si>
+  <si>
+    <t>分组行ID</t>
+  </si>
+  <si>
+    <t>GroupID</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>是否显示</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>分类名称</t>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>是否可见</t>
-  </si>
-  <si>
-    <t>分组行ID</t>
-  </si>
-  <si>
-    <t>GroupID</t>
-  </si>
-  <si>
-    <t>Show</t>
-  </si>
-  <si>
-    <t>是否显示</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>标题</t>
@@ -1704,7 +1707,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:J8" totalsRowShown="0">
-  <autoFilter ref="A1:J8"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J8" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Package" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -1723,7 +1726,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="UserSettingValueState" displayName="UserSettingValueState" ref="A4:F8" totalsRowShown="0">
-  <autoFilter ref="A4:F8"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:F8" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="10"/>
     <tableColumn id="2" name="Type" dataDxfId="11"/>
@@ -1738,7 +1741,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="UserSettingUIGroupInfo" displayName="UserSettingUIGroupInfo" ref="A12:F15" totalsRowShown="0">
-  <autoFilter ref="A12:F15"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A12:F15" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="16"/>
     <tableColumn id="2" name="Type" dataDxfId="17"/>
@@ -1753,7 +1756,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="UserSettingSection" displayName="UserSettingSection" ref="A19:F24" totalsRowShown="0">
-  <autoFilter ref="A19:F24"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A19:F24" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="22"/>
     <tableColumn id="2" name="Type" dataDxfId="23"/>
@@ -1768,7 +1771,7 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="UserSettingUI" displayName="UserSettingUI" ref="A28:F47" totalsRowShown="0">
-  <autoFilter ref="A28:F47"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A28:F47" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="28"/>
     <tableColumn id="2" name="Type" dataDxfId="29"/>
@@ -1783,7 +1786,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="SettingOption" displayName="SettingOption" ref="A51:F56" totalsRowShown="0">
-  <autoFilter ref="A51:F56"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A51:F56" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="34"/>
     <tableColumn id="2" name="Type" dataDxfId="35"/>
@@ -1798,7 +1801,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="UserSettingContainer" displayName="UserSettingContainer" ref="A60:F61" totalsRowShown="0">
-  <autoFilter ref="A60:F61"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A60:F61" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="40"/>
     <tableColumn id="2" name="Type" dataDxfId="41"/>
@@ -1813,7 +1816,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="UserSetting_StorageType" displayName="UserSetting_StorageType" ref="A4:F7" totalsRowShown="0">
-  <autoFilter ref="A4:F7"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:F7" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -2325,8 +2328,8 @@
   <sheetPr/>
   <dimension ref="A3:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2610,10 +2613,10 @@
         <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5">
         <v>4</v>
@@ -2625,13 +2628,13 @@
     </row>
     <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
@@ -2694,7 +2697,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
@@ -2712,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
@@ -2724,13 +2727,13 @@
     </row>
     <row r="32" ht="14.25" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5">
         <v>4</v>
@@ -2742,13 +2745,13 @@
     </row>
     <row r="33" ht="14.25" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
@@ -2760,13 +2763,13 @@
     </row>
     <row r="34" ht="14.25" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="5">
         <v>6</v>
@@ -2778,13 +2781,13 @@
     </row>
     <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5">
         <v>7</v>
@@ -2796,13 +2799,13 @@
     </row>
     <row r="36" ht="14.25" spans="1:6">
       <c r="A36" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="5">
         <v>8</v>
@@ -2814,13 +2817,13 @@
     </row>
     <row r="37" ht="14.25" spans="1:6">
       <c r="A37" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="5">
         <v>9</v>
@@ -2832,13 +2835,13 @@
     </row>
     <row r="38" ht="14.25" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="5">
         <v>10</v>
@@ -2850,13 +2853,13 @@
     </row>
     <row r="39" ht="14.25" spans="1:6">
       <c r="A39" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="5">
         <v>11</v>
@@ -2868,13 +2871,13 @@
     </row>
     <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="5">
         <v>12</v>
@@ -2886,13 +2889,13 @@
     </row>
     <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" s="5">
         <v>13</v>
@@ -2904,13 +2907,13 @@
     </row>
     <row r="42" ht="14.25" spans="1:6">
       <c r="A42" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="5">
         <v>14</v>
@@ -2922,13 +2925,13 @@
     </row>
     <row r="43" ht="14.25" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" s="5">
         <v>15</v>
@@ -2940,13 +2943,13 @@
     </row>
     <row r="44" ht="14.25" spans="1:6">
       <c r="A44" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" s="5">
         <v>16</v>
@@ -2976,13 +2979,13 @@
     </row>
     <row r="46" ht="14.25" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D46" s="5">
         <v>18</v>
@@ -2994,13 +2997,13 @@
     </row>
     <row r="47" ht="14.25" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" s="5">
         <v>19</v>
@@ -3062,13 +3065,13 @@
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D53" s="10">
         <v>2</v>
@@ -3086,7 +3089,7 @@
         <v>48</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D54" s="10">
         <v>3</v>
@@ -3104,7 +3107,7 @@
         <v>36</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55" s="10">
         <v>4</v>
@@ -3116,13 +3119,13 @@
     </row>
     <row r="56" ht="14.25" spans="1:6">
       <c r="A56" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D56" s="10">
         <v>5</v>
@@ -3180,13 +3183,13 @@
     </row>
     <row r="61" ht="14.25" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -3215,7 +3218,7 @@
   <sheetPr/>
   <dimension ref="A3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3259,13 +3262,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3277,13 +3280,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3301,7 +3304,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
